--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>92.91363357404555</v>
+        <v>38.60827867593733</v>
       </c>
       <c r="R2">
-        <v>836.2227021664099</v>
+        <v>347.474508083436</v>
       </c>
       <c r="S2">
-        <v>0.1412783317297661</v>
+        <v>0.06589146243751835</v>
       </c>
       <c r="T2">
-        <v>0.141278331729766</v>
+        <v>0.06589146243751835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>149.7602232328445</v>
+        <v>65.44574551930667</v>
       </c>
       <c r="R3">
-        <v>1347.8420090956</v>
+        <v>589.01170967376</v>
       </c>
       <c r="S3">
-        <v>0.2277154996952336</v>
+        <v>0.1116940726308121</v>
       </c>
       <c r="T3">
-        <v>0.2277154996952336</v>
+        <v>0.1116940726308122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>47.31427122616721</v>
+        <v>62.25870241895</v>
       </c>
       <c r="R4">
-        <v>425.828441035505</v>
+        <v>560.32832177055</v>
       </c>
       <c r="S4">
-        <v>0.07194295442676366</v>
+        <v>0.1062548523926722</v>
       </c>
       <c r="T4">
-        <v>0.07194295442676364</v>
+        <v>0.1062548523926723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>23.99292613282333</v>
+        <v>11.04128362729733</v>
       </c>
       <c r="R5">
-        <v>215.93633519541</v>
+        <v>99.371552645676</v>
       </c>
       <c r="S5">
-        <v>0.03648205808956394</v>
+        <v>0.0188437907707986</v>
       </c>
       <c r="T5">
-        <v>0.03648205808956392</v>
+        <v>0.01884379077079861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>27.12582088340511</v>
+        <v>25.79282693560511</v>
       </c>
       <c r="R6">
-        <v>244.132387950646</v>
+        <v>232.135442420446</v>
       </c>
       <c r="S6">
-        <v>0.04124573083404234</v>
+        <v>0.04401975807960763</v>
       </c>
       <c r="T6">
-        <v>0.04124573083404234</v>
+        <v>0.04401975807960764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
-        <v>43.72199035392889</v>
+        <v>43.72199035392888</v>
       </c>
       <c r="R7">
-        <v>393.49791318536</v>
+        <v>393.4979131853599</v>
       </c>
       <c r="S7">
-        <v>0.06648076950069326</v>
+        <v>0.0746188637230018</v>
       </c>
       <c r="T7">
-        <v>0.06648076950069326</v>
+        <v>0.07461886372300182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>13.81324136341144</v>
+        <v>41.59283945824166</v>
       </c>
       <c r="R8">
-        <v>124.319172270703</v>
+        <v>374.335555124175</v>
       </c>
       <c r="S8">
-        <v>0.0210035020753779</v>
+        <v>0.07098511285198923</v>
       </c>
       <c r="T8">
-        <v>0.0210035020753779</v>
+        <v>0.07098511285198926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>7.004653587560666</v>
+        <v>7.376291497898444</v>
       </c>
       <c r="R9">
-        <v>63.04188228804599</v>
+        <v>66.38662348108599</v>
       </c>
       <c r="S9">
-        <v>0.01065081339658131</v>
+        <v>0.01258887085439743</v>
       </c>
       <c r="T9">
-        <v>0.01065081339658131</v>
+        <v>0.01258887085439743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>63.16716464268022</v>
+        <v>37.24684681195777</v>
       </c>
       <c r="R10">
-        <v>568.504481784122</v>
+        <v>335.22162130762</v>
       </c>
       <c r="S10">
-        <v>0.09604781663936768</v>
+        <v>0.06356795205054634</v>
       </c>
       <c r="T10">
-        <v>0.09604781663936768</v>
+        <v>0.06356795205054634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>101.8142151370578</v>
+        <v>63.13795231102221</v>
       </c>
       <c r="R11">
-        <v>916.3279362335201</v>
+        <v>568.2415707991998</v>
       </c>
       <c r="S11">
-        <v>0.1548119679279993</v>
+        <v>0.1077554388788751</v>
       </c>
       <c r="T11">
-        <v>0.1548119679279993</v>
+        <v>0.1077554388788752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>32.16652116085788</v>
+        <v>60.06329293191666</v>
       </c>
       <c r="R12">
-        <v>289.498690447721</v>
+        <v>540.5696363872499</v>
       </c>
       <c r="S12">
-        <v>0.04891028660002442</v>
+        <v>0.1025080201921476</v>
       </c>
       <c r="T12">
-        <v>0.04891028660002442</v>
+        <v>0.1025080201921477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>16.31154715399133</v>
+        <v>10.65193823649111</v>
       </c>
       <c r="R13">
-        <v>146.803924385922</v>
+        <v>95.86744412841999</v>
       </c>
       <c r="S13">
-        <v>0.02480226077920859</v>
+        <v>0.01817930796883628</v>
       </c>
       <c r="T13">
-        <v>0.02480226077920859</v>
+        <v>0.01817930796883628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N14">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q14">
-        <v>11.40998381189045</v>
+        <v>25.90505976721422</v>
       </c>
       <c r="R14">
-        <v>102.689854307014</v>
+        <v>233.145537904928</v>
       </c>
       <c r="S14">
-        <v>0.01734926744332825</v>
+        <v>0.04421130211269703</v>
       </c>
       <c r="T14">
-        <v>0.01734926744332824</v>
+        <v>0.04421130211269703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P15">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q15">
-        <v>18.39086102891556</v>
+        <v>43.91223870449777</v>
       </c>
       <c r="R15">
-        <v>165.51774926024</v>
+        <v>395.21014834048</v>
       </c>
       <c r="S15">
-        <v>0.02796392806195179</v>
+        <v>0.07494355424211378</v>
       </c>
       <c r="T15">
-        <v>0.02796392806195179</v>
+        <v>0.07494355424211378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N16">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q16">
-        <v>5.810289060880778</v>
+        <v>41.77382319293333</v>
       </c>
       <c r="R16">
-        <v>52.292601547927</v>
+        <v>375.9644087364</v>
       </c>
       <c r="S16">
-        <v>0.008834741617706426</v>
+        <v>0.07129399175996476</v>
       </c>
       <c r="T16">
-        <v>0.008834741617706424</v>
+        <v>0.07129399175996476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N17">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O17">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P17">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q17">
-        <v>2.946380291512667</v>
+        <v>7.408388099160889</v>
       </c>
       <c r="R17">
-        <v>26.517422623614</v>
+        <v>66.67549289244801</v>
       </c>
       <c r="S17">
-        <v>0.00448007118239157</v>
+        <v>0.01264364905402161</v>
       </c>
       <c r="T17">
-        <v>0.004480071182391568</v>
+        <v>0.01264364905402161</v>
       </c>
     </row>
   </sheetData>
